--- a/EJ INGAME/Balance Register.xlsx
+++ b/EJ INGAME/Balance Register.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicke\Desktop\Retardarenan Balance Register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gittar\textspel\EJ INGAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
-    <sheet name="Sorterade Listor" sheetId="3" r:id="rId2"/>
-    <sheet name="Damage-Sorted Diagram" sheetId="7" r:id="rId3"/>
-    <sheet name="Attackspeed-Sorted Diagram" sheetId="8" r:id="rId4"/>
-    <sheet name="Crit-Chance-Sorted Diagram" sheetId="9" r:id="rId5"/>
-    <sheet name="Crit-Damage-Sorted Diagram" sheetId="10" r:id="rId6"/>
-    <sheet name="Damage Per Turn Diagram" sheetId="11" r:id="rId7"/>
+    <sheet name="Lista (Prefixnormaliserad)" sheetId="12" r:id="rId2"/>
+    <sheet name="Sorterade Listor" sheetId="3" r:id="rId3"/>
+    <sheet name="Damage-Sorted Diagram" sheetId="7" r:id="rId4"/>
+    <sheet name="Attackspeed-Sorted Diagram" sheetId="8" r:id="rId5"/>
+    <sheet name="Crit-Chance-Sorted Diagram" sheetId="9" r:id="rId6"/>
+    <sheet name="Crit-Damage-Sorted Diagram" sheetId="10" r:id="rId7"/>
+    <sheet name="Damage Per Turn Diagram" sheetId="11" r:id="rId8"/>
+    <sheet name="Prefixnormaliserad DpT Diagram" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="41">
   <si>
     <t>Item Name</t>
   </si>
@@ -150,6 +152,9 @@
   </si>
   <si>
     <t>Damage-Per-Turn Sorted</t>
+  </si>
+  <si>
+    <t>Sorterad</t>
   </si>
 </sst>
 </file>
@@ -310,7 +315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,7 +586,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -761,11 +764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="630932456"/>
-        <c:axId val="630934416"/>
+        <c:axId val="219514016"/>
+        <c:axId val="219517152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="630932456"/>
+        <c:axId val="219514016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +811,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630934416"/>
+        <c:crossAx val="219517152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630934416"/>
+        <c:axId val="219517152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +870,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630932456"/>
+        <c:crossAx val="219514016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1342,11 +1344,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="532724800"/>
-        <c:axId val="535899040"/>
+        <c:axId val="219512448"/>
+        <c:axId val="219515976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532724800"/>
+        <c:axId val="219512448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1391,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535899040"/>
+        <c:crossAx val="219515976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535899040"/>
+        <c:axId val="219515976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1450,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532724800"/>
+        <c:crossAx val="219512448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1532,7 +1534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1853,11 +1854,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="533119504"/>
-        <c:axId val="533119896"/>
+        <c:axId val="219516760"/>
+        <c:axId val="219518328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="533119504"/>
+        <c:axId val="219516760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1901,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533119896"/>
+        <c:crossAx val="219518328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533119896"/>
+        <c:axId val="219518328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1960,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533119504"/>
+        <c:crossAx val="219516760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2043,7 +2044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2378,11 +2378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="394893648"/>
-        <c:axId val="394894824"/>
+        <c:axId val="219516368"/>
+        <c:axId val="218407296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394893648"/>
+        <c:axId val="219516368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394894824"/>
+        <c:crossAx val="218407296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2433,7 +2433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394894824"/>
+        <c:axId val="218407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2484,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394893648"/>
+        <c:crossAx val="219516368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2964,11 +2964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="532077272"/>
-        <c:axId val="532074136"/>
+        <c:axId val="221681544"/>
+        <c:axId val="221685464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532077272"/>
+        <c:axId val="221681544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3011,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532074136"/>
+        <c:crossAx val="221685464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3019,7 +3019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532074136"/>
+        <c:axId val="221685464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3070,7 +3070,563 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532077272"/>
+        <c:crossAx val="221681544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lista (Prefixnormaliserad)'!$I$2:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Two-Bladed Axe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ancient Spear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woodcutter's Axe</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tomahawk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Broadsword</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Longsword</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Combat Hammer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Zweihander</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Shortbow</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ancient Sword</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Halberd</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Shortsword</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Assassin's Knife</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rapier</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pike</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Nameless Sword</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Longbow</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Hunting Spear</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Crossbow</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Serrated Sword</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Linen Knife</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Cursed Sword</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lista (Prefixnormaliserad)'!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>49.306400000000018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.718999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.839800000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.15175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.908000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.557000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.128000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.260800000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.214000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.772000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.497999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.399800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.2256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.184250000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.252800000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.477500000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="504132432"/>
+        <c:axId val="504126552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="504132432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504126552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504126552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504132432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,6 +3870,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -5335,6 +5931,511 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5884,6 +6985,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -6003,6 +7115,33 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6292,11 +7431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="A2:G23"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,9 +7447,18 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6332,8 +7480,10 @@
       <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6357,7 +7507,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6377,11 +7527,11 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G23" si="0">C3 * D3 + (C3 * D3 * E3 * F3)</f>
+        <f>C3 * D3 + (C3 * D3 * E3 * F3)</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6401,11 +7551,11 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f>C4 * D4 + (C4 * D4 * E4 * F4)</f>
         <v>11.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6425,11 +7575,11 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>C5 * D5 + (C5 * D5 * E5 * F5)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -6452,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6472,11 +7622,11 @@
         <v>0.7</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>C7 * D7 + (C7 * D7 * E7 * F7)</f>
         <v>9.3375000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6496,11 +7646,11 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>C8 * D8 + (C8 * D8 * E8 * F8)</f>
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -6520,11 +7670,11 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f>C9 * D9 + (C9 * D9 * E9 * F9)</f>
         <v>11.88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -6544,11 +7694,11 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f>C10 * D10 + (C10 * D10 * E10 * F10)</f>
         <v>6.48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6568,11 +7718,11 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>C11 * D11 + (C11 * D11 * E11 * F11)</f>
         <v>15.125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -6592,11 +7742,11 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>C12 * D12 + (C12 * D12 * E12 * F12)</f>
         <v>14.560000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -6616,11 +7766,11 @@
         <v>14</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f>C13 * D13 + (C13 * D13 * E13 * F13)</f>
         <v>7.875</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -6640,11 +7790,11 @@
         <v>0.2</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f>C14 * D14 + (C14 * D14 * E14 * F14)</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -6664,11 +7814,11 @@
         <v>0.4</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f>C15 * D15 + (C15 * D15 * E15 * F15)</f>
         <v>13.92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -6688,7 +7838,7 @@
         <v>-0.5</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f>C16 * D16 + (C16 * D16 * E16 * F16)</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -6712,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
+        <f>C17 * D17 + (C17 * D17 * E17 * F17)</f>
         <v>9.5</v>
       </c>
     </row>
@@ -6736,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
+        <f>C18 * D18 + (C18 * D18 * E18 * F18)</f>
         <v>13.6</v>
       </c>
     </row>
@@ -6760,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
+        <f>C19 * D19 + (C19 * D19 * E19 * F19)</f>
         <v>15</v>
       </c>
     </row>
@@ -6784,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
+        <f>C20 * D20 + (C20 * D20 * E20 * F20)</f>
         <v>19.5</v>
       </c>
     </row>
@@ -6808,7 +7958,7 @@
         <v>0.8</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f>C21 * D21 + (C21 * D21 * E21 * F21)</f>
         <v>13.103999999999999</v>
       </c>
     </row>
@@ -6832,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f>C22 * D22 + (C22 * D22 * E22 * F22)</f>
         <v>7.7</v>
       </c>
     </row>
@@ -6856,7 +8006,7 @@
         <v>1.3</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f>C23 * D23 + (C23 * D23 * E23 * F23)</f>
         <v>3.2760000000000002</v>
       </c>
     </row>
@@ -6867,6 +8017,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" activeCellId="1" sqref="I2:I23 O2:O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <f>(C2 * D2 + (C2 * D2 * E2 * F2)) * 1.3</f>
+        <v>31.772000000000002</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O2" s="3">
+        <f>(K2 * L2 + (K2 * L2 * M2 * N2)) * 1.3</f>
+        <v>49.306400000000018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G23" si="0">(C3 * D3 + (C3 * D3 * E3 * F3)) * 1.3</f>
+        <v>37.557000000000002</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="6">
+        <f>(K3 * L3 + (K3 * L3 * M3 * N3)) * 1.3</f>
+        <v>43.718999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>37.908000000000008</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <f>(K4 * L4 + (K4 * L4 * M4 * N4)) * 1.3</f>
+        <v>39.839800000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2540000000000004</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="O5" s="3">
+        <f>(K5 * L5 + (K5 * L5 * M5 * N5)) * 1.3</f>
+        <v>38.15175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6" s="2">
+        <f>(K6 * L6 + (K6 * L6 * M6 * N6)) * 1.3</f>
+        <v>37.908000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>25.184250000000002</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f>(K7 * L7 + (K7 * L7 * M7 * N7)) * 1.3</f>
+        <v>37.557000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>32.260800000000003</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="4">
+        <f>(K8 * L8 + (K8 * L8 * M8 * N8)) * 1.3</f>
+        <v>37.128000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>28.399800000000003</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <f>(K9 * L9 + (K9 * L9 * M9 * N9)) * 1.3</f>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="O10" s="7">
+        <f>(K10 * L10 + (K10 * L10 * M10 * N10)) * 1.3</f>
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>49.306400000000018</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O11" s="2">
+        <f>(K11 * L11 + (K11 * L11 * M11 * N11)) * 1.3</f>
+        <v>32.260800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>39.839800000000011</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6">
+        <v>20</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O12" s="6">
+        <f>(K12 * L12 + (K12 * L12 * M12 * N12)) * 1.3</f>
+        <v>32.214000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>38.15175</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13" s="2">
+        <f>(K13 * L13 + (K13 * L13 * M13 * N13)) * 1.3</f>
+        <v>31.772000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>37.128000000000007</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="5">
+        <v>6</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <f>(K14 * L14 + (K14 * L14 * M14 * N14)) * 1.3</f>
+        <v>30.497999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>30.497999999999998</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O15" s="2">
+        <f>(K15 * L15 + (K15 * L15 * M15 * N15)) * 1.3</f>
+        <v>28.399800000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1132</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6">
+        <v>16</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O16" s="6">
+        <f>(K16 * L16 + (K16 * L16 * M16 * N16)) * 1.3</f>
+        <v>28.2256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>19.175000000000001</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="O17" s="2">
+        <f>(K17 * L17 + (K17 * L17 * M17 * N17)) * 1.3</f>
+        <v>25.184250000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>28.2256</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="7">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="O18" s="7">
+        <f>(K18 * L18 + (K18 * L18 * M18 * N18)) * 1.3</f>
+        <v>24.252800000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>32.214000000000006</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O19" s="6">
+        <f>(K19 * L19 + (K19 * L19 * M19 * N19)) * 1.3</f>
+        <v>19.175000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>43.718999999999994</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="7">
+        <v>13</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="O20" s="7">
+        <f>(K20 * L20 + (K20 * L20 * M20 * N20)) * 1.3</f>
+        <v>16.477500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>32.76</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O21" s="2">
+        <f>(K21 * L21 + (K21 * L21 * M21 * N21)) * 1.3</f>
+        <v>7.2540000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>24.252800000000004</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="5">
+        <f>(K22 * L22 + (K22 * L22 * M22 * N22)) * 1.3</f>
+        <v>4.1132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>16.477500000000003</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>35</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="I2:O23">
+    <sortCondition descending="1" ref="O2:O23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -6967,7 +9185,7 @@
         <v>0.4</v>
       </c>
       <c r="O2" s="5">
-        <f>K2 * L2 + (K2 * L2 * M2 * N2)</f>
+        <f t="shared" ref="O2:O22" si="0">K2 * L2 + (K2 * L2 * M2 * N2)</f>
         <v>13.92</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -6989,7 +9207,7 @@
         <v>0.5</v>
       </c>
       <c r="W2" s="2">
-        <f>S2 * T2 + (S2 * T2 * U2 * V2)</f>
+        <f t="shared" ref="W2:W14" si="1">S2 * T2 + (S2 * T2 * U2 * V2)</f>
         <v>11.25</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -7033,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="6">
-        <f>AI2 * AJ2 + (AI2 * AJ2 * AK2 * AL2)</f>
+        <f t="shared" ref="AM2:AM22" si="2">AI2 * AJ2 + (AI2 * AJ2 * AK2 * AL2)</f>
         <v>19.5</v>
       </c>
     </row>
@@ -7078,7 +9296,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" s="2">
-        <f>K3 * L3 + (K3 * L3 * M3 * N3)</f>
+        <f t="shared" si="0"/>
         <v>11.88</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -7100,7 +9318,7 @@
         <v>0.2</v>
       </c>
       <c r="W3" s="4">
-        <f>S3 * T3 + (S3 * T3 * U3 * V3)</f>
+        <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -7144,7 +9362,7 @@
         <v>0.5</v>
       </c>
       <c r="AM3" s="3">
-        <f>AI3 * AJ3 + (AI3 * AJ3 * AK3 * AL3)</f>
+        <f t="shared" si="2"/>
         <v>15.125</v>
       </c>
     </row>
@@ -7168,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>C4 * D4 + (C4 * D4 * E4 * F4)</f>
+        <f t="shared" ref="G4:G23" si="3">C4 * D4 + (C4 * D4 * E4 * F4)</f>
         <v>19.5</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -7190,7 +9408,7 @@
         <v>0.8</v>
       </c>
       <c r="O4" s="7">
-        <f>K4 * L4 + (K4 * L4 * M4 * N4)</f>
+        <f t="shared" si="0"/>
         <v>13.103999999999999</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -7212,7 +9430,7 @@
         <v>-0.5</v>
       </c>
       <c r="W4" s="5">
-        <f>S4 * T4 + (S4 * T4 * U4 * V4)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Y4" s="7" t="s">
@@ -7256,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="6">
-        <f>AI4 * AJ4 + (AI4 * AJ4 * AK4 * AL4)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7280,7 +9498,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="3">
-        <f>C5 * D5 + (C5 * D5 * E5 * F5)</f>
+        <f t="shared" si="3"/>
         <v>15.125</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -7302,7 +9520,7 @@
         <v>-0.5</v>
       </c>
       <c r="O5" s="5">
-        <f>K5 * L5 + (K5 * L5 * M5 * N5)</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -7324,7 +9542,7 @@
         <v>1.5</v>
       </c>
       <c r="W5" s="2">
-        <f>S5 * T5 + (S5 * T5 * U5 * V5)</f>
+        <f t="shared" si="1"/>
         <v>11.88</v>
       </c>
       <c r="Y5" s="2" t="s">
@@ -7367,7 +9585,7 @@
         <v>0.5</v>
       </c>
       <c r="AM5" s="3">
-        <f>AI5 * AJ5 + (AI5 * AJ5 * AK5 * AL5)</f>
+        <f t="shared" si="2"/>
         <v>14.560000000000002</v>
       </c>
     </row>
@@ -7391,7 +9609,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="2">
-        <f>C6 * D6 + (C6 * D6 * E6 * F6)</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -7413,7 +9631,7 @@
         <v>0.5</v>
       </c>
       <c r="O6" s="2">
-        <f>K6 * L6 + (K6 * L6 * M6 * N6)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -7435,7 +9653,7 @@
         <v>0.5</v>
       </c>
       <c r="W6" s="3">
-        <f>S6 * T6 + (S6 * T6 * U6 * V6)</f>
+        <f t="shared" si="1"/>
         <v>15.125</v>
       </c>
       <c r="Y6" s="7" t="s">
@@ -7457,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="7">
-        <f>AA6 * AB6 + (AA6 * AB6 * AC6 * AD6)</f>
+        <f t="shared" ref="AE6:AE23" si="4">AA6 * AB6 + (AA6 * AB6 * AC6 * AD6)</f>
         <v>7.7</v>
       </c>
       <c r="AG6" s="5" t="s">
@@ -7479,7 +9697,7 @@
         <v>0.4</v>
       </c>
       <c r="AM6" s="5">
-        <f>AI6 * AJ6 + (AI6 * AJ6 * AK6 * AL6)</f>
+        <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
@@ -7503,7 +9721,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="4">
-        <f>C7 * D7 + (C7 * D7 * E7 * F7)</f>
+        <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -7525,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="6">
-        <f>K7 * L7 + (K7 * L7 * M7 * N7)</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="Q7" s="7" t="s">
@@ -7547,7 +9765,7 @@
         <v>0.8</v>
       </c>
       <c r="W7" s="7">
-        <f>S7 * T7 + (S7 * T7 * U7 * V7)</f>
+        <f t="shared" si="1"/>
         <v>13.103999999999999</v>
       </c>
       <c r="Y7" s="7" t="s">
@@ -7569,7 +9787,7 @@
         <v>0.8</v>
       </c>
       <c r="AE7" s="7">
-        <f>AA7 * AB7 + (AA7 * AB7 * AC7 * AD7)</f>
+        <f t="shared" si="4"/>
         <v>13.103999999999999</v>
       </c>
       <c r="AG7" s="6" t="s">
@@ -7591,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="6">
-        <f>AI7 * AJ7 + (AI7 * AJ7 * AK7 * AL7)</f>
+        <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
     </row>
@@ -7615,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f>C8 * D8 + (C8 * D8 * E8 * F8)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -7637,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="6">
-        <f>K8 * L8 + (K8 * L8 * M8 * N8)</f>
+        <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -7659,7 +9877,7 @@
         <v>0.5</v>
       </c>
       <c r="W8" s="3">
-        <f>S8 * T8 + (S8 * T8 * U8 * V8)</f>
+        <f t="shared" si="1"/>
         <v>14.560000000000002</v>
       </c>
       <c r="Y8" s="2" t="s">
@@ -7681,7 +9899,7 @@
         <v>0.7</v>
       </c>
       <c r="AE8" s="2">
-        <f>AA8 * AB8 + (AA8 * AB8 * AC8 * AD8)</f>
+        <f t="shared" si="4"/>
         <v>9.3375000000000004</v>
       </c>
       <c r="AG8" s="2" t="s">
@@ -7703,7 +9921,7 @@
         <v>0.5</v>
       </c>
       <c r="AM8" s="2">
-        <f>AI8 * AJ8 + (AI8 * AJ8 * AK8 * AL8)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
     </row>
@@ -7727,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>C9 * D9 + (C9 * D9 * E9 * F9)</f>
+        <f t="shared" si="3"/>
         <v>13.6</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -7749,7 +9967,7 @@
         <v>0.5</v>
       </c>
       <c r="O9" s="2">
-        <f>K9 * L9 + (K9 * L9 * M9 * N9)</f>
+        <f t="shared" si="0"/>
         <v>12.000000000000002</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -7771,7 +9989,7 @@
         <v>0.5</v>
       </c>
       <c r="W9" s="2">
-        <f>S9 * T9 + (S9 * T9 * U9 * V9)</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="Y9" s="2" t="s">
@@ -7793,7 +10011,7 @@
         <v>0.5</v>
       </c>
       <c r="AE9" s="2">
-        <f>AA9 * AB9 + (AA9 * AB9 * AC9 * AD9)</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AG9" s="7" t="s">
@@ -7815,7 +10033,7 @@
         <v>0.8</v>
       </c>
       <c r="AM9" s="7">
-        <f>AI9 * AJ9 + (AI9 * AJ9 * AK9 * AL9)</f>
+        <f t="shared" si="2"/>
         <v>13.103999999999999</v>
       </c>
     </row>
@@ -7839,7 +10057,7 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="2">
-        <f>C10 * D10 + (C10 * D10 * E10 * F10)</f>
+        <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -7861,7 +10079,7 @@
         <v>0.5</v>
       </c>
       <c r="O10" s="3">
-        <f>K10 * L10 + (K10 * L10 * M10 * N10)</f>
+        <f t="shared" si="0"/>
         <v>14.560000000000002</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -7883,7 +10101,7 @@
         <v>0.5</v>
       </c>
       <c r="W10" s="2">
-        <f>S10 * T10 + (S10 * T10 * U10 * V10)</f>
+        <f t="shared" si="1"/>
         <v>12.000000000000002</v>
       </c>
       <c r="Y10" s="2" t="s">
@@ -7905,7 +10123,7 @@
         <v>0.5</v>
       </c>
       <c r="AE10" s="2">
-        <f>AA10 * AB10 + (AA10 * AB10 * AC10 * AD10)</f>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="AG10" s="2" t="s">
@@ -7927,7 +10145,7 @@
         <v>0.5</v>
       </c>
       <c r="AM10" s="2">
-        <f>AI10 * AJ10 + (AI10 * AJ10 * AK10 * AL10)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -7951,7 +10169,7 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="3">
-        <f>C11 * D11 + (C11 * D11 * E11 * F11)</f>
+        <f t="shared" si="3"/>
         <v>14.560000000000002</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -7973,7 +10191,7 @@
         <v>0.7</v>
       </c>
       <c r="O11" s="2">
-        <f>K11 * L11 + (K11 * L11 * M11 * N11)</f>
+        <f t="shared" si="0"/>
         <v>9.3375000000000004</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -7995,7 +10213,7 @@
         <v>0.4</v>
       </c>
       <c r="W11" s="5">
-        <f>S11 * T11 + (S11 * T11 * U11 * V11)</f>
+        <f t="shared" si="1"/>
         <v>13.92</v>
       </c>
       <c r="Y11" s="2" t="s">
@@ -8017,7 +10235,7 @@
         <v>0.5</v>
       </c>
       <c r="AE11" s="2">
-        <f>AA11 * AB11 + (AA11 * AB11 * AC11 * AD11)</f>
+        <f t="shared" si="4"/>
         <v>11.25</v>
       </c>
       <c r="AG11" s="2" t="s">
@@ -8039,7 +10257,7 @@
         <v>0.5</v>
       </c>
       <c r="AM11" s="2">
-        <f>AI11 * AJ11 + (AI11 * AJ11 * AK11 * AL11)</f>
+        <f t="shared" si="2"/>
         <v>12.000000000000002</v>
       </c>
     </row>
@@ -8063,7 +10281,7 @@
         <v>1.3</v>
       </c>
       <c r="G12" s="7">
-        <f>C12 * D12 + (C12 * D12 * E12 * F12)</f>
+        <f t="shared" si="3"/>
         <v>3.2760000000000002</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -8085,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="6">
-        <f>K12 * L12 + (K12 * L12 * M12 * N12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -8107,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="7">
-        <f>S12 * T12 + (S12 * T12 * U12 * V12)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
       <c r="Y12" s="2" t="s">
@@ -8129,7 +10347,7 @@
         <v>0.5</v>
       </c>
       <c r="AE12" s="2">
-        <f>AA12 * AB12 + (AA12 * AB12 * AC12 * AD12)</f>
+        <f t="shared" si="4"/>
         <v>12.000000000000002</v>
       </c>
       <c r="AG12" s="2" t="s">
@@ -8151,7 +10369,7 @@
         <v>1.5</v>
       </c>
       <c r="AM12" s="2">
-        <f>AI12 * AJ12 + (AI12 * AJ12 * AK12 * AL12)</f>
+        <f t="shared" si="2"/>
         <v>11.88</v>
       </c>
     </row>
@@ -8175,7 +10393,7 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="2">
-        <f>C13 * D13 + (C13 * D13 * E13 * F13)</f>
+        <f t="shared" si="3"/>
         <v>12.000000000000002</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -8197,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <f>K13 * L13 + (K13 * L13 * M13 * N13)</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -8219,7 +10437,7 @@
         <v>0.7</v>
       </c>
       <c r="W13" s="2">
-        <f>S13 * T13 + (S13 * T13 * U13 * V13)</f>
+        <f t="shared" si="1"/>
         <v>9.3375000000000004</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -8241,7 +10459,7 @@
         <v>0.5</v>
       </c>
       <c r="AE13" s="3">
-        <f>AA13 * AB13 + (AA13 * AB13 * AC13 * AD13)</f>
+        <f t="shared" si="4"/>
         <v>15.125</v>
       </c>
       <c r="AG13" s="2" t="s">
@@ -8263,7 +10481,7 @@
         <v>0.5</v>
       </c>
       <c r="AM13" s="2">
-        <f>AI13 * AJ13 + (AI13 * AJ13 * AK13 * AL13)</f>
+        <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
@@ -8287,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <f>C14 * D14 + (C14 * D14 * E14 * F14)</f>
+        <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -8309,7 +10527,7 @@
         <v>0.5</v>
       </c>
       <c r="O14" s="2">
-        <f>K14 * L14 + (K14 * L14 * M14 * N14)</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -8331,7 +10549,7 @@
         <v>0.5</v>
       </c>
       <c r="W14" s="2">
-        <f>S14 * T14 + (S14 * T14 * U14 * V14)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -8353,7 +10571,7 @@
         <v>0.5</v>
       </c>
       <c r="AE14" s="3">
-        <f>AA14 * AB14 + (AA14 * AB14 * AC14 * AD14)</f>
+        <f t="shared" si="4"/>
         <v>14.560000000000002</v>
       </c>
       <c r="AG14" s="4" t="s">
@@ -8375,7 +10593,7 @@
         <v>0.2</v>
       </c>
       <c r="AM14" s="4">
-        <f>AI14 * AJ14 + (AI14 * AJ14 * AK14 * AL14)</f>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
@@ -8399,7 +10617,7 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="2">
-        <f>C15 * D15 + (C15 * D15 * E15 * F15)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -8421,7 +10639,7 @@
         <v>0.2</v>
       </c>
       <c r="O15" s="2">
-        <f>K15 * L15 + (K15 * L15 * M15 * N15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -8464,7 +10682,7 @@
         <v>0.4</v>
       </c>
       <c r="AE15" s="2">
-        <f>AA15 * AB15 + (AA15 * AB15 * AC15 * AD15)</f>
+        <f t="shared" si="4"/>
         <v>6.48</v>
       </c>
       <c r="AG15" s="6" t="s">
@@ -8486,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AM15" s="6">
-        <f>AI15 * AJ15 + (AI15 * AJ15 * AK15 * AL15)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
@@ -8510,7 +10728,7 @@
         <v>0.7</v>
       </c>
       <c r="G16" s="2">
-        <f>C16 * D16 + (C16 * D16 * E16 * F16)</f>
+        <f t="shared" si="3"/>
         <v>9.3375000000000004</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -8532,7 +10750,7 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="2">
-        <f>K16 * L16 + (K16 * L16 * M16 * N16)</f>
+        <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -8554,7 +10772,7 @@
         <v>14</v>
       </c>
       <c r="W16" s="3">
-        <f>S16 * T16 + (S16 * T16 * U16 * V16)</f>
+        <f t="shared" ref="W16:W23" si="5">S16 * T16 + (S16 * T16 * U16 * V16)</f>
         <v>7.875</v>
       </c>
       <c r="Y16" s="5" t="s">
@@ -8576,7 +10794,7 @@
         <v>0.4</v>
       </c>
       <c r="AE16" s="5">
-        <f>AA16 * AB16 + (AA16 * AB16 * AC16 * AD16)</f>
+        <f t="shared" si="4"/>
         <v>13.92</v>
       </c>
       <c r="AG16" s="2" t="s">
@@ -8598,7 +10816,7 @@
         <v>0.7</v>
       </c>
       <c r="AM16" s="2">
-        <f>AI16 * AJ16 + (AI16 * AJ16 * AK16 * AL16)</f>
+        <f t="shared" si="2"/>
         <v>9.3375000000000004</v>
       </c>
     </row>
@@ -8622,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f>C17 * D17 + (C17 * D17 * E17 * F17)</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -8644,7 +10862,7 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="3">
-        <f>K17 * L17 + (K17 * L17 * M17 * N17)</f>
+        <f t="shared" si="0"/>
         <v>15.125</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -8666,7 +10884,7 @@
         <v>0.4</v>
       </c>
       <c r="W17" s="2">
-        <f>S17 * T17 + (S17 * T17 * U17 * V17)</f>
+        <f t="shared" si="5"/>
         <v>6.48</v>
       </c>
       <c r="Y17" s="2" t="s">
@@ -8688,7 +10906,7 @@
         <v>0.2</v>
       </c>
       <c r="AE17" s="2">
-        <f>AA17 * AB17 + (AA17 * AB17 * AC17 * AD17)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AG17" s="3" t="s">
@@ -8710,7 +10928,7 @@
         <v>14</v>
       </c>
       <c r="AM17" s="3">
-        <f>AI17 * AJ17 + (AI17 * AJ17 * AK17 * AL17)</f>
+        <f t="shared" si="2"/>
         <v>7.875</v>
       </c>
     </row>
@@ -8734,7 +10952,7 @@
         <v>0.8</v>
       </c>
       <c r="G18" s="7">
-        <f>C18 * D18 + (C18 * D18 * E18 * F18)</f>
+        <f t="shared" si="3"/>
         <v>13.103999999999999</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -8756,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="7">
-        <f>K18 * L18 + (K18 * L18 * M18 * N18)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -8778,7 +10996,7 @@
         <v>1.3</v>
       </c>
       <c r="W18" s="7">
-        <f>S18 * T18 + (S18 * T18 * U18 * V18)</f>
+        <f t="shared" si="5"/>
         <v>3.2760000000000002</v>
       </c>
       <c r="Y18" s="4" t="s">
@@ -8800,7 +11018,7 @@
         <v>0.2</v>
       </c>
       <c r="AE18" s="4">
-        <f>AA18 * AB18 + (AA18 * AB18 * AC18 * AD18)</f>
+        <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
       <c r="AG18" s="7" t="s">
@@ -8822,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="AM18" s="7">
-        <f>AI18 * AJ18 + (AI18 * AJ18 * AK18 * AL18)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -8846,7 +11064,7 @@
         <v>0.4</v>
       </c>
       <c r="G19" s="5">
-        <f>C19 * D19 + (C19 * D19 * E19 * F19)</f>
+        <f t="shared" si="3"/>
         <v>13.92</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8868,7 +11086,7 @@
         <v>0.2</v>
       </c>
       <c r="O19" s="4">
-        <f>K19 * L19 + (K19 * L19 * M19 * N19)</f>
+        <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -8890,7 +11108,7 @@
         <v>0.2</v>
       </c>
       <c r="W19" s="2">
-        <f>S19 * T19 + (S19 * T19 * U19 * V19)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Y19" s="6" t="s">
@@ -8912,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f>AA19 * AB19 + (AA19 * AB19 * AC19 * AD19)</f>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="AG19" s="2" t="s">
@@ -8934,7 +11152,7 @@
         <v>0.4</v>
       </c>
       <c r="AM19" s="2">
-        <f>AI19 * AJ19 + (AI19 * AJ19 * AK19 * AL19)</f>
+        <f t="shared" si="2"/>
         <v>6.48</v>
       </c>
     </row>
@@ -8958,7 +11176,7 @@
         <v>0.2</v>
       </c>
       <c r="G20" s="2">
-        <f>C20 * D20 + (C20 * D20 * E20 * F20)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -8980,7 +11198,7 @@
         <v>14</v>
       </c>
       <c r="O20" s="3">
-        <f>K20 * L20 + (K20 * L20 * M20 * N20)</f>
+        <f t="shared" si="0"/>
         <v>7.875</v>
       </c>
       <c r="Q20" s="6" t="s">
@@ -9002,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6">
-        <f>S20 * T20 + (S20 * T20 * U20 * V20)</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="Y20" s="6" t="s">
@@ -9024,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="6">
-        <f>AA20 * AB20 + (AA20 * AB20 * AC20 * AD20)</f>
+        <f t="shared" si="4"/>
         <v>13.6</v>
       </c>
       <c r="AG20" s="7" t="s">
@@ -9046,7 +11264,7 @@
         <v>1.3</v>
       </c>
       <c r="AM20" s="7">
-        <f>AI20 * AJ20 + (AI20 * AJ20 * AK20 * AL20)</f>
+        <f t="shared" si="2"/>
         <v>3.2760000000000002</v>
       </c>
     </row>
@@ -9070,7 +11288,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3">
-        <f>C21 * D21 + (C21 * D21 * E21 * F21)</f>
+        <f t="shared" si="3"/>
         <v>7.875</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -9092,7 +11310,7 @@
         <v>1.3</v>
       </c>
       <c r="O21" s="7">
-        <f>K21 * L21 + (K21 * L21 * M21 * N21)</f>
+        <f t="shared" si="0"/>
         <v>3.2760000000000002</v>
       </c>
       <c r="Q21" s="6" t="s">
@@ -9114,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6">
-        <f>S21 * T21 + (S21 * T21 * U21 * V21)</f>
+        <f t="shared" si="5"/>
         <v>13.6</v>
       </c>
       <c r="Y21" s="6" t="s">
@@ -9136,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="6">
-        <f>AA21 * AB21 + (AA21 * AB21 * AC21 * AD21)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AG21" s="2" t="s">
@@ -9158,7 +11376,7 @@
         <v>0.2</v>
       </c>
       <c r="AM21" s="2">
-        <f>AI21 * AJ21 + (AI21 * AJ21 * AK21 * AL21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -9182,7 +11400,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="2">
-        <f>C22 * D22 + (C22 * D22 * E22 * F22)</f>
+        <f t="shared" si="3"/>
         <v>11.88</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -9204,7 +11422,7 @@
         <v>0.4</v>
       </c>
       <c r="O22" s="2">
-        <f>K22 * L22 + (K22 * L22 * M22 * N22)</f>
+        <f t="shared" si="0"/>
         <v>6.48</v>
       </c>
       <c r="Q22" s="6" t="s">
@@ -9226,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6">
-        <f>S22 * T22 + (S22 * T22 * U22 * V22)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Y22" s="6" t="s">
@@ -9248,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="6">
-        <f>AA22 * AB22 + (AA22 * AB22 * AC22 * AD22)</f>
+        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="AG22" s="5" t="s">
@@ -9270,7 +11488,7 @@
         <v>-0.5</v>
       </c>
       <c r="AM22" s="5">
-        <f>AI22 * AJ22 + (AI22 * AJ22 * AK22 * AL22)</f>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -9294,7 +11512,7 @@
         <v>-0.5</v>
       </c>
       <c r="G23" s="5">
-        <f>C23 * D23 + (C23 * D23 * E23 * F23)</f>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -9337,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6">
-        <f>S23 * T23 + (S23 * T23 * U23 * V23)</f>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="Y23" s="5" t="s">
@@ -9359,7 +11577,7 @@
         <v>-0.5</v>
       </c>
       <c r="AE23" s="5">
-        <f>AA23 * AB23 + (AA23 * AB23 * AC23 * AD23)</f>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AG23" s="2" t="s">
